--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="422">
   <si>
     <t>Property</t>
   </si>
@@ -149,10 +149,6 @@
   </si>
   <si>
     <t>DICOM画像研究で生成されたコンテンツの表現。 研究には、共通の文脈で収集または生成されたサービスオブジェクトペアインスタンス（SOPインスタンス - 画像またはその他のデータ）のセットで構成される一連のシリーズが含まれます。 シリーズは1つのモダリティのみ（X線、CT、MR、超音波など）、研究には複数の異なるモダリティのシリーズが含まれる場合があります。</t>
-  </si>
-  <si>
-    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1852,16 +1848,16 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AM1" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>38</v>
@@ -1872,10 +1868,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1886,28 +1882,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1957,13 +1953,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1989,10 +1985,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2003,25 +1999,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2072,19 +2068,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2104,10 +2100,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2118,28 +2114,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2189,19 +2185,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2221,10 +2217,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2235,7 +2231,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2247,16 +2243,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2282,43 +2278,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2338,21 +2334,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2364,16 +2360,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2423,25 +2419,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2455,14 +2451,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2481,16 +2477,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2540,7 +2536,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2558,7 +2554,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2572,14 +2568,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2598,16 +2594,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2657,7 +2653,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2669,13 +2665,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>38</v>
@@ -2689,14 +2685,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2709,25 +2705,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2776,7 +2772,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2788,13 +2784,13 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>38</v>
@@ -2808,14 +2804,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2825,28 +2821,28 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2895,7 +2891,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2907,19 +2903,19 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AL10" t="s" s="2">
+      <c r="AM10" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AM10" t="s" s="2">
+      <c r="AN10" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>38</v>
@@ -2927,10 +2923,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2938,31 +2934,31 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="I11" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2988,70 +2984,70 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="Y11" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="Z11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AA11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AM11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>127</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3067,19 +3063,19 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3105,14 +3101,14 @@
         <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="AA12" t="s" s="2">
         <v>38</v>
       </c>
@@ -3129,7 +3125,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3141,19 +3137,19 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>38</v>
@@ -3161,10 +3157,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3172,31 +3168,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="I13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3246,31 +3242,31 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>38</v>
@@ -3278,10 +3274,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3292,28 +3288,28 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3363,31 +3359,31 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>38</v>
@@ -3395,42 +3391,42 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K15" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3444,67 +3440,67 @@
         <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="U15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>38</v>
@@ -3512,10 +3508,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3535,22 +3531,22 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3599,7 +3595,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3611,19 +3607,19 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>38</v>
@@ -3631,42 +3627,42 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3716,31 +3712,31 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AM17" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AN17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>38</v>
@@ -3748,14 +3744,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3771,19 +3767,19 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3833,7 +3829,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3845,19 +3841,19 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>38</v>
@@ -3865,10 +3861,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3888,22 +3884,22 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -3952,7 +3948,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3964,13 +3960,13 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>38</v>
@@ -3984,42 +3980,42 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4069,28 +4065,28 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -4101,42 +4097,42 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4186,28 +4182,28 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>38</v>
@@ -4218,10 +4214,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4232,28 +4228,28 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4303,28 +4299,28 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>38</v>
@@ -4335,14 +4331,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4358,19 +4354,19 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4396,14 +4392,14 @@
         <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Z23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AA23" t="s" s="2">
         <v>38</v>
       </c>
@@ -4420,7 +4416,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4432,16 +4428,16 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>38</v>
@@ -4452,10 +4448,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4466,31 +4462,31 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4539,42 +4535,42 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4594,19 +4590,19 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4632,14 +4628,14 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>38</v>
       </c>
@@ -4656,7 +4652,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4668,19 +4664,19 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>38</v>
@@ -4688,10 +4684,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4711,19 +4707,19 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4773,7 +4769,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4785,30 +4781,30 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4828,19 +4824,19 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4890,7 +4886,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4902,13 +4898,13 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
@@ -4922,42 +4918,42 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5007,28 +5003,28 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -5039,10 +5035,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5062,19 +5058,19 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5124,7 +5120,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5136,13 +5132,13 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
@@ -5156,10 +5152,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5170,7 +5166,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5182,13 +5178,13 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5239,25 +5235,25 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
@@ -5271,14 +5267,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5297,16 +5293,16 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5356,7 +5352,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5368,13 +5364,13 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
@@ -5388,14 +5384,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5408,25 +5404,25 @@
         <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="N32" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>38</v>
@@ -5475,7 +5471,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5487,13 +5483,13 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -5507,45 +5503,45 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J33" t="s" s="2">
+      <c r="K33" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="L33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5558,64 +5554,64 @@
         <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="U33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>38</v>
@@ -5626,42 +5622,42 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5675,64 +5671,64 @@
         <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="U34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>38</v>
@@ -5743,42 +5739,42 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H35" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="I35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5804,52 +5800,52 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="AM35" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>38</v>
@@ -5860,42 +5856,42 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K36" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5909,64 +5905,64 @@
         <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -5977,42 +5973,42 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K37" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6062,28 +6058,28 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -6094,10 +6090,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6117,22 +6113,22 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
@@ -6181,7 +6177,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6193,13 +6189,13 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -6213,42 +6209,42 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K39" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6274,52 +6270,52 @@
         <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Z39" t="s" s="2">
+      <c r="AA39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AA39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>38</v>
@@ -6330,10 +6326,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6344,28 +6340,28 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K40" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6391,52 +6387,52 @@
         <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="Z40" t="s" s="2">
+      <c r="AA40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>38</v>
@@ -6447,10 +6443,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6470,19 +6466,19 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6532,7 +6528,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6544,16 +6540,16 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>38</v>
@@ -6564,10 +6560,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6578,28 +6574,28 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6649,28 +6645,28 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6681,14 +6677,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6704,22 +6700,22 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6768,7 +6764,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6780,16 +6776,16 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>38</v>
@@ -6800,10 +6796,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6814,7 +6810,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6826,13 +6822,13 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6883,25 +6879,25 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
@@ -6915,14 +6911,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6941,16 +6937,16 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7000,7 +6996,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7012,13 +7008,13 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
@@ -7032,14 +7028,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7052,25 +7048,25 @@
         <v>38</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="N46" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -7119,7 +7115,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7131,13 +7127,13 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7151,10 +7147,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7165,29 +7161,29 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7212,14 +7208,14 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>38</v>
       </c>
@@ -7236,25 +7232,25 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7268,10 +7264,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7279,31 +7275,31 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H48" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="I48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7353,42 +7349,42 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AM48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>385</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7411,16 +7407,16 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7470,7 +7466,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7482,13 +7478,13 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
@@ -7502,10 +7498,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7516,7 +7512,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7528,13 +7524,13 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7585,25 +7581,25 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>38</v>
@@ -7617,14 +7613,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7643,16 +7639,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7702,7 +7698,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7714,13 +7710,13 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
@@ -7734,14 +7730,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7754,25 +7750,25 @@
         <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7821,7 +7817,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7833,13 +7829,13 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
@@ -7853,45 +7849,45 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H53" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H53" t="s" s="2">
+      <c r="I53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="I53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="L53" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7904,64 +7900,64 @@
         <v>38</v>
       </c>
       <c r="T53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>38</v>
@@ -7972,25 +7968,25 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H54" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="I54" t="s" s="2">
         <v>38</v>
       </c>
@@ -7998,16 +7994,16 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8033,52 +8029,52 @@
         <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Z54" t="s" s="2">
+      <c r="AA54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AA54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -8089,21 +8085,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8115,16 +8111,16 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8138,7 +8134,7 @@
         <v>38</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>38</v>
@@ -8174,28 +8170,28 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>38</v>
@@ -8206,10 +8202,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8220,7 +8216,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8232,16 +8228,16 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8291,28 +8287,28 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>38</v>
